--- a/medicine/Autisme/Paul_El_Kharrat/Paul_El_Kharrat.xlsx
+++ b/medicine/Autisme/Paul_El_Kharrat/Paul_El_Kharrat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul El Kharrat, né le 2 juin 1999 à Saint-Germain-en-Laye, est un candidat de jeu télévisé, un écrivain et un chroniqueur de radio et de télévision français.
 Il se fait connaître en 2019 en participant 153 fois à l'émission Les Douze Coups de midi de TF1, ce qui fait de lui l'un des plus grands champions du jeu. Depuis 2020, il participe en tant que chroniqueur aux Grosses Têtes sur RTL.
@@ -514,25 +526,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance, jeunesse et formation
-Aîné d'une fratrie de trois enfants[1], Paul El Kharrat est né d'un père franco-marocain champion du Maroc du 3000 m steeple 1989 et champion de France vétéran de cross-country en 2006 et 2007[2],[3], et d'une mère travaillant dans l’administration[4]. Au gré des mutations de cette dernière, il vivra à La Réunion, en Martinique, en Eure-et-Loir, puis en Isère[5]. Il a un frère, Sami, et une sœur, Louise.
-À l'âge de trois ans, les médecins lui détectent un handicap de nature cognitive, mais ce n'est qu'en 2015, à l'âge de seize ans, que le syndrome d'Asperger est diagnostiqué[6].
+          <t>Enfance, jeunesse et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aîné d'une fratrie de trois enfants, Paul El Kharrat est né d'un père franco-marocain champion du Maroc du 3000 m steeple 1989 et champion de France vétéran de cross-country en 2006 et 2007 et d'une mère travaillant dans l’administration. Au gré des mutations de cette dernière, il vivra à La Réunion, en Martinique, en Eure-et-Loir, puis en Isère. Il a un frère, Sami, et une sœur, Louise.
+À l'âge de trois ans, les médecins lui détectent un handicap de nature cognitive, mais ce n'est qu'en 2015, à l'âge de seize ans, que le syndrome d'Asperger est diagnostiqué.
 Pendant sa scolarité, en lien avec sa particularité autistique, il se fait harceler à plusieurs reprises.
-Il pratique pendant douze ans le judo, obtenant une ceinture verte, ainsi que le tennis pendant quatorze ans[2].
-Après avoir décroché un baccalauréat, il entame une licence en histoire à l'université Grenoble-Alpes[7],[8]. En 2020, il déclare avoir arrêté ses études[9].
-Participation au jeu Les Douze Coups de midi
-Après avoir passé des auditions à Chambéry où il n'a pas été retenu[6] puis à Grenoble, il participe pour la première fois au jeu télévisé Les Douze Coups de midi sur TF1 le 29 avril 2019[4]. Il y restera 153 jours et deviendra le cinquième plus grand maître de midi (deuxième à son époque), avec 691 522 € de gains et six étoiles mystérieuses[10],[11]. Impressionnant avec ses nombreuses connaissances, notamment en histoire, géographie, littérature ou encore en politique[12], le candidat est aussi apprécié du public, de par sa timidité qui se dissipe au fur et à mesure des émissions, ainsi qu'avec son humour[6],[13].
-Il déclarera a posteriori : « Cette émission a changé ma vie. Je ne m’attendais pas à faire autant de participations, et attirer autant l’admiration et le respect du public[14]. »
-Son parcours est rediffusé du 29 avril au 11 mai 2020 pendant le premier confinement national en raison de la pandémie de Covid-19[15].
-Carrière d'écrivain
-En 2020, Paul El Kharrat publie son autobiographie intitulée Ma 153e victoire et préfacée par Jean-Luc Reichmann, dans laquelle il revient sur son parcours télévisé et son existence avec le syndrome d'Asperger[16].
-En fin d'année 2021, il publie un nouveau livre, Crimes et mystères de Paris, où il retrace la chronologie de plusieurs affaires criminelles de la capitale de la Révolution française aux années 1960, notamment l'ogresse de la Goutte-d'or, l'assassinat de Marius Plateau[9],[17].
-En octobre 2022 est publié son troisième livre, Bienvenue dans mon monde : Moi, Paul, autiste asperger où il raconte sa vie d'autiste[18].
-Activités audiovisuelles
-Le 20 novembre 2020, il devient sociétaire des Grosses Têtes sur RTL[19],[20],[21]. Il prend part également aux émissions sur France 2 à partir de 2021[22].
-Le 5 juin 2021, il participe sur France 2 au jeu Le club des invincibles où des personnalités et des champions de jeux télévisés s'affrontent sur des questions de culture générale[23]. La même année, il participe à Fort Boyard en compagnie des chanteurs Dave et Jérémy Frérot, des animatrices Elsa Fayer et Carinne Teyssandier ainsi que du candidat de Koh-Lanta : Les Armes secrètes Vincent Blier, mais l'aventure de l'équipe se conclut par une défaite[24]. Ils remportent 4 500 € (3 000 € de gain minimal + 1 500 € de bonus) pour la Fondation Frédéric Gaillanne[25].
-Durant l'été 2022, il participe à la première saison de l'émission Les Traîtres sur M6. Il apparaît dans la saison 3 de l'émission Jeu de la scolarité de Pierre Croce, où il gagne avec Joyce Jonathan[Quand ?].
-En 2023, il participe, pour la chaîne C8 à l'émission de télé-réalité, Bienvenue au monastère, filmée au sein du couvent Saint-Dominique de Corbara en Corse, présentée par Alessandra Martines et diffusée début 2024. Il fait partie des 6 personnalités « people » avec Fabienne Carat, Clara Morgane, Delphine Wespiser, Simon Castaldi et Jean-Marc Généreux, entourées deux « coachs spirituels », sœur Catherine Thiercelin (communauté des Béatitudes) et frère Baudouin Ardillier (communauté Saint-Jean)[26].
+Il pratique pendant douze ans le judo, obtenant une ceinture verte, ainsi que le tennis pendant quatorze ans.
+Après avoir décroché un baccalauréat, il entame une licence en histoire à l'université Grenoble-Alpes,. En 2020, il déclare avoir arrêté ses études.
 </t>
         </is>
       </c>
@@ -558,86 +562,288 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Participation au jeu Les Douze Coups de midi</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir passé des auditions à Chambéry où il n'a pas été retenu puis à Grenoble, il participe pour la première fois au jeu télévisé Les Douze Coups de midi sur TF1 le 29 avril 2019. Il y restera 153 jours et deviendra le cinquième plus grand maître de midi (deuxième à son époque), avec 691 522 € de gains et six étoiles mystérieuses,. Impressionnant avec ses nombreuses connaissances, notamment en histoire, géographie, littérature ou encore en politique, le candidat est aussi apprécié du public, de par sa timidité qui se dissipe au fur et à mesure des émissions, ainsi qu'avec son humour,.
+Il déclarera a posteriori : « Cette émission a changé ma vie. Je ne m’attendais pas à faire autant de participations, et attirer autant l’admiration et le respect du public. »
+Son parcours est rediffusé du 29 avril au 11 mai 2020 pendant le premier confinement national en raison de la pandémie de Covid-19.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Paul_El_Kharrat</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_El_Kharrat</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Carrière d'écrivain</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2020, Paul El Kharrat publie son autobiographie intitulée Ma 153e victoire et préfacée par Jean-Luc Reichmann, dans laquelle il revient sur son parcours télévisé et son existence avec le syndrome d'Asperger.
+En fin d'année 2021, il publie un nouveau livre, Crimes et mystères de Paris, où il retrace la chronologie de plusieurs affaires criminelles de la capitale de la Révolution française aux années 1960, notamment l'ogresse de la Goutte-d'or, l'assassinat de Marius Plateau,.
+En octobre 2022 est publié son troisième livre, Bienvenue dans mon monde : Moi, Paul, autiste asperger où il raconte sa vie d'autiste.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Paul_El_Kharrat</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_El_Kharrat</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Activités audiovisuelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 20 novembre 2020, il devient sociétaire des Grosses Têtes sur RTL. Il prend part également aux émissions sur France 2 à partir de 2021.
+Le 5 juin 2021, il participe sur France 2 au jeu Le club des invincibles où des personnalités et des champions de jeux télévisés s'affrontent sur des questions de culture générale. La même année, il participe à Fort Boyard en compagnie des chanteurs Dave et Jérémy Frérot, des animatrices Elsa Fayer et Carinne Teyssandier ainsi que du candidat de Koh-Lanta : Les Armes secrètes Vincent Blier, mais l'aventure de l'équipe se conclut par une défaite. Ils remportent 4 500 € (3 000 € de gain minimal + 1 500 € de bonus) pour la Fondation Frédéric Gaillanne.
+Durant l'été 2022, il participe à la première saison de l'émission Les Traîtres sur M6. Il apparaît dans la saison 3 de l'émission Jeu de la scolarité de Pierre Croce, où il gagne avec Joyce Jonathan[Quand ?].
+En 2023, il participe, pour la chaîne C8 à l'émission de télé-réalité, Bienvenue au monastère, filmée au sein du couvent Saint-Dominique de Corbara en Corse, présentée par Alessandra Martines et diffusée début 2024. Il fait partie des 6 personnalités « people » avec Fabienne Carat, Clara Morgane, Delphine Wespiser, Simon Castaldi et Jean-Marc Généreux, entourées deux « coachs spirituels », sœur Catherine Thiercelin (communauté des Béatitudes) et frère Baudouin Ardillier (communauté Saint-Jean).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Paul_El_Kharrat</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_El_Kharrat</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Synthèse des émissions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Télévision
-Chroniqueur
-Depuis 2021 : Les Grosses Têtes sur France 2 et Paris Première
-Depuis 2023 : Camille &amp; images sur TF1.
-Participant/candidat
-2019-2023 : Les Douze Coups de midi sur TF1
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Chroniqueur</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Depuis 2021 : Les Grosses Têtes sur France 2 et Paris Première
+Depuis 2023 : Camille &amp; images sur TF1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Paul_El_Kharrat</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_El_Kharrat</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Synthèse des émissions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Participant/candidat</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2019-2023 : Les Douze Coups de midi sur TF1
 2021- : Le Quiz des Champions sur France 2
 2021 : Le Club des invincibles sur France 2
 2021 : Fort Boyard sur France 2
 2022 : Le Grand Quiz sur TF1.
 2022 : Les Traîtres (saison 1) sur M6
 2023 : Qui peut nous battre ? sur M6
-2024 : Bienvenue au monastère sur C8
-Radio
-2020- : Les Grosses Têtes, émission quotidienne sur RTL : sociétaire.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Paul_El_Kharrat</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Autisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Paul_El_Kharrat</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+2024 : Bienvenue au monastère sur C8</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Paul_El_Kharrat</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_El_Kharrat</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Synthèse des émissions</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Radio</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2020- : Les Grosses Têtes, émission quotidienne sur RTL : sociétaire.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Paul_El_Kharrat</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_El_Kharrat</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Engagements</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paul El Kharrat, grâce à sa popularité, est un des représentants de la cause des Asperger dans les médias[6],[7], à l'instar de Josef Schovanec dont il admire le travail[1],[27].
-Il se déclare « profondément écologiste » et « engagé dans la protection de l'environnement et la cause animale »[16]. Il est ainsi membre adhérent à la WWF depuis février 2017.
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul El Kharrat, grâce à sa popularité, est un des représentants de la cause des Asperger dans les médias à l'instar de Josef Schovanec dont il admire le travail,.
+Il se déclare « profondément écologiste » et « engagé dans la protection de l'environnement et la cause animale ». Il est ainsi membre adhérent à la WWF depuis février 2017.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Paul_El_Kharrat</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Autisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Paul_El_Kharrat</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Paul_El_Kharrat</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paul_El_Kharrat</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Ma 153e victoire  (préf. Jean-Luc Reichmann), HarperCollins, 2020, 192 p. (ISBN 9791033907213, présentation en ligne), édition poche septembre 2021
 Crimes et mystères de Paris, HarperCollins, 2021, 336 p. (ISBN 979-1033909859, présentation en ligne), édition poche octobre 2022
